--- a/src/main/resources/BankInfo.xlsx
+++ b/src/main/resources/BankInfo.xlsx
@@ -7,15 +7,16 @@
     <workbookView windowWidth="19200" windowHeight="8340" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="中杨信息表" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="中杨信息表" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>UserName</t>
   </si>
@@ -35,207 +36,198 @@
     <t>Password</t>
   </si>
   <si>
+    <t>程永娥</t>
+  </si>
+  <si>
+    <t>332528196801040045</t>
+  </si>
+  <si>
+    <t>中国工商银行</t>
+  </si>
+  <si>
+    <t>6222081210000657157</t>
+  </si>
+  <si>
+    <t>a15857806565@163.com</t>
+  </si>
+  <si>
+    <t>cye123</t>
+  </si>
+  <si>
+    <t>宋荣伟</t>
+  </si>
+  <si>
+    <t>332528196703071016</t>
+  </si>
+  <si>
+    <t>中国建设银行</t>
+  </si>
+  <si>
+    <t>6217001490001176664</t>
+  </si>
+  <si>
+    <t>c15355785681@163.com</t>
+  </si>
+  <si>
+    <t>srw123</t>
+  </si>
+  <si>
+    <t>毛水美</t>
+  </si>
+  <si>
+    <t>331124195206140049</t>
+  </si>
+  <si>
+    <t>6212261210002089500</t>
+  </si>
+  <si>
+    <t>a13695773549@163.com</t>
+  </si>
+  <si>
+    <t>zxb123</t>
+  </si>
+  <si>
+    <t>叶晖</t>
+  </si>
+  <si>
+    <t>332528199311270810</t>
+  </si>
+  <si>
+    <t>6217234301001876626</t>
+  </si>
+  <si>
+    <t>a17706132072@163.com</t>
+  </si>
+  <si>
+    <t>wxl123</t>
+  </si>
+  <si>
+    <t>毛小美</t>
+  </si>
+  <si>
+    <t>332528196604020029</t>
+  </si>
+  <si>
+    <t>6222081210001180570</t>
+  </si>
+  <si>
+    <t>a13757098596@163.com</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>身份证</t>
+  </si>
+  <si>
+    <t>王新兰</t>
+  </si>
+  <si>
+    <t>33252819680921082x</t>
+  </si>
+  <si>
     <t>叶林建</t>
   </si>
   <si>
+    <t>15157887349</t>
+  </si>
+  <si>
     <t>332528196608290018</t>
   </si>
   <si>
-    <t>中国农业银行</t>
-  </si>
-  <si>
-    <t>6228481088983241377</t>
-  </si>
-  <si>
-    <t>a15157887349@163.com</t>
-  </si>
-  <si>
-    <t>ylj123</t>
-  </si>
-  <si>
     <t>叶鹏</t>
   </si>
   <si>
+    <t>15158015845</t>
+  </si>
+  <si>
     <t>33252819910318001X</t>
   </si>
   <si>
-    <t>中国工商银行</t>
-  </si>
-  <si>
-    <t>6217231202001025722</t>
-  </si>
-  <si>
-    <t>d15158015845@163.com</t>
-  </si>
-  <si>
-    <t>zxb123</t>
+    <t>17706132072</t>
+  </si>
+  <si>
+    <t>13757098596</t>
   </si>
   <si>
     <t>王春兰</t>
   </si>
   <si>
+    <t>13567614850</t>
+  </si>
+  <si>
     <t>332528197502010828</t>
   </si>
   <si>
-    <t>6228411084548592979</t>
-  </si>
-  <si>
-    <t>a13567614850@163.com</t>
-  </si>
-  <si>
-    <t>wcl123</t>
-  </si>
-  <si>
     <t>杨兰香</t>
   </si>
   <si>
+    <t>15267310606</t>
+  </si>
+  <si>
     <t>332528197308090828</t>
   </si>
   <si>
-    <t>6228480389029871776</t>
-  </si>
-  <si>
-    <t>a15267310606@163.com</t>
-  </si>
-  <si>
-    <t>ylx123</t>
-  </si>
-  <si>
-    <t>c15267310606@163.com</t>
-  </si>
-  <si>
-    <t>程永娥</t>
-  </si>
-  <si>
-    <t>332528196801040045</t>
-  </si>
-  <si>
-    <t>6222081210000657157</t>
-  </si>
-  <si>
-    <t>a15857806565@163.com</t>
-  </si>
-  <si>
-    <t>cye123</t>
+    <t>周樟兴</t>
+  </si>
+  <si>
+    <t>15257814630</t>
+  </si>
+  <si>
+    <t>332528197011185412</t>
+  </si>
+  <si>
+    <t>周金献</t>
+  </si>
+  <si>
+    <t>13735944238</t>
+  </si>
+  <si>
+    <t>332528197409245438</t>
+  </si>
+  <si>
+    <t>15857806565</t>
+  </si>
+  <si>
+    <t>叶雪萍</t>
+  </si>
+  <si>
+    <t>15088285039</t>
+  </si>
+  <si>
+    <t>332528198711302426</t>
+  </si>
+  <si>
+    <t>周关汉</t>
+  </si>
+  <si>
+    <t>13735971782</t>
+  </si>
+  <si>
+    <t>332528196807185413</t>
   </si>
   <si>
     <t>叶伟红</t>
   </si>
   <si>
+    <t>13868069569</t>
+  </si>
+  <si>
     <t>332528197602031220</t>
   </si>
   <si>
-    <t>6222021202009390239</t>
-  </si>
-  <si>
-    <t>a13868069569@163.com</t>
-  </si>
-  <si>
     <t>王金兰</t>
   </si>
   <si>
+    <t>15957826243</t>
+  </si>
+  <si>
     <t>332528196302270049</t>
   </si>
   <si>
-    <t>6217211210001189913</t>
-  </si>
-  <si>
-    <t>c15957826243@163.com</t>
-  </si>
-  <si>
-    <t>wjl123</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>手机号码</t>
-  </si>
-  <si>
-    <t>身份证</t>
-  </si>
-  <si>
-    <t>王新兰</t>
-  </si>
-  <si>
-    <t>33252819680921082x</t>
-  </si>
-  <si>
-    <t>15157887349</t>
-  </si>
-  <si>
-    <t>15158015845</t>
-  </si>
-  <si>
-    <t>叶晖</t>
-  </si>
-  <si>
-    <t>17706132072</t>
-  </si>
-  <si>
-    <t>332528199311270810</t>
-  </si>
-  <si>
-    <t>毛小美</t>
-  </si>
-  <si>
-    <t>13757098596</t>
-  </si>
-  <si>
-    <t>332528196604020029</t>
-  </si>
-  <si>
-    <t>13567614850</t>
-  </si>
-  <si>
-    <t>15267310606</t>
-  </si>
-  <si>
-    <t>周樟兴</t>
-  </si>
-  <si>
-    <t>15257814630</t>
-  </si>
-  <si>
-    <t>332528197011185412</t>
-  </si>
-  <si>
-    <t>周金献</t>
-  </si>
-  <si>
-    <t>13735944238</t>
-  </si>
-  <si>
-    <t>332528197409245438</t>
-  </si>
-  <si>
-    <t>15857806565</t>
-  </si>
-  <si>
-    <t>叶雪萍</t>
-  </si>
-  <si>
-    <t>15088285039</t>
-  </si>
-  <si>
-    <t>332528198711302426</t>
-  </si>
-  <si>
-    <t>周关汉</t>
-  </si>
-  <si>
-    <t>13735971782</t>
-  </si>
-  <si>
-    <t>332528196807185413</t>
-  </si>
-  <si>
-    <t>13868069569</t>
-  </si>
-  <si>
-    <t>15957826243</t>
-  </si>
-  <si>
     <t>金爱香</t>
   </si>
   <si>
@@ -269,13 +261,7 @@
     <t>13626784727</t>
   </si>
   <si>
-    <t>宋荣伟</t>
-  </si>
-  <si>
     <t>15355785681</t>
-  </si>
-  <si>
-    <t>332528196703071016</t>
   </si>
   <si>
     <t>李秀华</t>
@@ -292,17 +278,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,15 +313,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,113 +434,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,6 +448,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -478,6 +485,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -490,6 +617,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -500,164 +663,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -681,15 +688,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,30 +734,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,6 +756,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -754,192 +772,168 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -956,20 +950,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1290,10 +1289,160 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="20.3846153846154" customWidth="1"/>
+    <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
+    <col min="4" max="4" width="21.5384615384615" customWidth="1"/>
+    <col min="5" max="5" width="21.3076923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="a15857806565@163.com" tooltip="mailto:a15857806565@163.com"/>
+    <hyperlink ref="E3" r:id="rId2" display="c15355785681@163.com"/>
+    <hyperlink ref="E4" r:id="rId3" display="a13695773549@163.com"/>
+    <hyperlink ref="E5" r:id="rId4" display="a17706132072@163.com"/>
+    <hyperlink ref="E6" r:id="rId5" display="a13757098596@163.com" tooltip="mailto:a13757098596@163.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -1324,188 +1473,128 @@
       </c>
     </row>
     <row r="2" s="10" customFormat="1" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" spans="1:6">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:6">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:6">
-      <c r="A6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>24</v>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:6">
-      <c r="A7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="D6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" s="10" customFormat="1" spans="1:6">
-      <c r="A8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>42</v>
-      </c>
+      <c r="F6" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="d15158015845@163.com" tooltip="mailto:d15158015845@163.com"/>
-    <hyperlink ref="E5" r:id="rId3" display="a15267310606@163.com"/>
-    <hyperlink ref="E6" r:id="rId4" display="c15267310606@163.com" tooltip="mailto:c15267310606@163.com"/>
-    <hyperlink ref="E4" r:id="rId5" display="a13567614850@163.com" tooltip="mailto:a13567614850@163.com"/>
-    <hyperlink ref="E7" r:id="rId6" display="a15857806565@163.com" tooltip="mailto:a15857806565@163.com"/>
-    <hyperlink ref="E8" r:id="rId7" display="a13868069569@163.com" tooltip="mailto:a13868069569@163.com"/>
-    <hyperlink ref="E9" r:id="rId8" display="c15957826243@163.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="a15857806565@163.com" tooltip="mailto:a15857806565@163.com"/>
+    <hyperlink ref="E3" r:id="rId2" display="c15355785681@163.com"/>
+    <hyperlink ref="E4" r:id="rId3" display="a13695773549@163.com"/>
+    <hyperlink ref="E5" r:id="rId4" display="a17706132072@163.com"/>
+    <hyperlink ref="E6" r:id="rId5" display="a13757098596@163.com" tooltip="mailto:a13757098596@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="2"/>
@@ -1516,233 +1605,233 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B2" s="7">
         <v>13587172463</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/BankInfo.xlsx
+++ b/src/main/resources/BankInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
   <si>
     <t>UserName</t>
   </si>
@@ -45,75 +45,87 @@
     <t>中国工商银行</t>
   </si>
   <si>
+    <t>6222031210000657157</t>
+  </si>
+  <si>
+    <t>a15857806565@163.com</t>
+  </si>
+  <si>
+    <t>cye123</t>
+  </si>
+  <si>
+    <t>宋荣伟</t>
+  </si>
+  <si>
+    <t>332528196703071016</t>
+  </si>
+  <si>
+    <t>中国建设银行</t>
+  </si>
+  <si>
+    <t>6217001490001176664</t>
+  </si>
+  <si>
+    <t>c15355785681@163.com</t>
+  </si>
+  <si>
+    <t>srw123</t>
+  </si>
+  <si>
+    <t>毛水美</t>
+  </si>
+  <si>
+    <t>331124195206140049</t>
+  </si>
+  <si>
+    <t>6212261210002089500</t>
+  </si>
+  <si>
+    <t>a13695773549@163.com</t>
+  </si>
+  <si>
+    <t>zxb123</t>
+  </si>
+  <si>
+    <t>叶晖</t>
+  </si>
+  <si>
+    <t>332528199311270810</t>
+  </si>
+  <si>
+    <t>6217234301001876626</t>
+  </si>
+  <si>
+    <t>a17706132072@163.com</t>
+  </si>
+  <si>
+    <t>wxl123</t>
+  </si>
+  <si>
+    <t>毛小美</t>
+  </si>
+  <si>
+    <t>332528196604020029</t>
+  </si>
+  <si>
+    <t>6222081210001180570</t>
+  </si>
+  <si>
+    <t>a13757098596@163.com</t>
+  </si>
+  <si>
+    <t>叶鹏</t>
+  </si>
+  <si>
+    <t>a15158015845@163.com</t>
+  </si>
+  <si>
+    <t>ylj123</t>
+  </si>
+  <si>
     <t>6222081210000657157</t>
   </si>
   <si>
-    <t>a15857806565@163.com</t>
-  </si>
-  <si>
-    <t>cye123</t>
-  </si>
-  <si>
-    <t>宋荣伟</t>
-  </si>
-  <si>
-    <t>332528196703071016</t>
-  </si>
-  <si>
-    <t>中国建设银行</t>
-  </si>
-  <si>
-    <t>6217001490001176664</t>
-  </si>
-  <si>
-    <t>c15355785681@163.com</t>
-  </si>
-  <si>
-    <t>srw123</t>
-  </si>
-  <si>
-    <t>毛水美</t>
-  </si>
-  <si>
-    <t>331124195206140049</t>
-  </si>
-  <si>
-    <t>6212261210002089500</t>
-  </si>
-  <si>
-    <t>a13695773549@163.com</t>
-  </si>
-  <si>
-    <t>zxb123</t>
-  </si>
-  <si>
-    <t>叶晖</t>
-  </si>
-  <si>
-    <t>332528199311270810</t>
-  </si>
-  <si>
-    <t>6217234301001876626</t>
-  </si>
-  <si>
-    <t>a17706132072@163.com</t>
-  </si>
-  <si>
-    <t>wxl123</t>
-  </si>
-  <si>
-    <t>毛小美</t>
-  </si>
-  <si>
-    <t>332528196604020029</t>
-  </si>
-  <si>
-    <t>6222081210001180570</t>
-  </si>
-  <si>
-    <t>a13757098596@163.com</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -136,9 +148,6 @@
   </si>
   <si>
     <t>332528196608290018</t>
-  </si>
-  <si>
-    <t>叶鹏</t>
   </si>
   <si>
     <t>15158015845</t>
@@ -280,8 +289,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -342,8 +351,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +381,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -395,6 +412,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -402,67 +472,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -491,175 +500,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,56 +697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -757,7 +716,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,16 +744,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,13 +815,13 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,115 +830,115 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,13 +1298,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="20.3846153846154" customWidth="1"/>
     <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
@@ -1423,6 +1432,26 @@
         <v>22</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="a15857806565@163.com" tooltip="mailto:a15857806565@163.com"/>
@@ -1430,6 +1459,7 @@
     <hyperlink ref="E4" r:id="rId3" display="a13695773549@163.com"/>
     <hyperlink ref="E5" r:id="rId4" display="a17706132072@163.com"/>
     <hyperlink ref="E6" r:id="rId5" display="a13757098596@163.com" tooltip="mailto:a13757098596@163.com"/>
+    <hyperlink ref="E7" r:id="rId6" display="a15158015845@163.com" tooltip="mailto:a15158015845@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1483,7 +1513,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>10</v>
@@ -1605,46 +1635,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B2" s="7">
         <v>13587172463</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1652,7 +1682,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>24</v>
@@ -1663,7 +1693,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>29</v>
@@ -1671,46 +1701,46 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1718,7 +1748,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>7</v>
@@ -1726,90 +1756,90 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1817,7 +1847,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>13</v>
@@ -1825,13 +1855,13 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
